--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -739,12 +739,8 @@
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
-        <v>0.247</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.34999999999999998</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
